--- a/mbrMoPvt_70.xlsx
+++ b/mbrMoPvt_70.xlsx
@@ -413,14 +413,533 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>org_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>m-2019-01</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>m-2019-02</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>m-2019-03</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>m-2019-04</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>m-2019-05</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>m-2019-06</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>m-2019-07</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>m-2019-08</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>m-2019-09</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>m-2019-10</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>m-2019-11</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>m-2019-12</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>m-2020-01</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>m-2020-02</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>m-2020-03</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>m-2020-04</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>m-2020-05</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>m-2020-06</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>m-2020-07</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>m-2020-08</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>m-2020-09</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>m-2020-10</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>m-2020-11</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>m-2020-12</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>m-2021-01</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>m-2021-02</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>m-2021-03</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>m-2021-04</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>m-2021-05</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>m-2021-06</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>m-2021-07</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>m-2021-08</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>m-2021-09</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>m-2021-10</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>m-2021-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ADAUGEOPI</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6455</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6500</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6532</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6586</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6637</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6685</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6731</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6777</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6819</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6851</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6880</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6908</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6937</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6963</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6984</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>7002</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7023</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7033</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7040</v>
+      </c>
+      <c r="U2" t="n">
+        <v>7043</v>
+      </c>
+      <c r="V2" t="n">
+        <v>7045</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7046</v>
+      </c>
+      <c r="X2" t="n">
+        <v>7048</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7051</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>7053</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>7053</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>7053</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7053</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7022</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>6955</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>6857</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>6806</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6747</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>6690</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CARELINEPI</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>739</v>
+      </c>
+      <c r="C3" t="n">
+        <v>740</v>
+      </c>
+      <c r="D3" t="n">
+        <v>741</v>
+      </c>
+      <c r="E3" t="n">
+        <v>741</v>
+      </c>
+      <c r="F3" t="n">
+        <v>742</v>
+      </c>
+      <c r="G3" t="n">
+        <v>743</v>
+      </c>
+      <c r="H3" t="n">
+        <v>744</v>
+      </c>
+      <c r="I3" t="n">
+        <v>745</v>
+      </c>
+      <c r="J3" t="n">
+        <v>745</v>
+      </c>
+      <c r="K3" t="n">
+        <v>746</v>
+      </c>
+      <c r="L3" t="n">
+        <v>747</v>
+      </c>
+      <c r="M3" t="n">
+        <v>748</v>
+      </c>
+      <c r="N3" t="n">
+        <v>748</v>
+      </c>
+      <c r="O3" t="n">
+        <v>749</v>
+      </c>
+      <c r="P3" t="n">
+        <v>749</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>751</v>
+      </c>
+      <c r="R3" t="n">
+        <v>751</v>
+      </c>
+      <c r="S3" t="n">
+        <v>751</v>
+      </c>
+      <c r="T3" t="n">
+        <v>751</v>
+      </c>
+      <c r="U3" t="n">
+        <v>751</v>
+      </c>
+      <c r="V3" t="n">
+        <v>751</v>
+      </c>
+      <c r="W3" t="n">
+        <v>751</v>
+      </c>
+      <c r="X3" t="n">
+        <v>751</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>751</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>751</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>751</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>722</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>692</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>661</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>635</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>797</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>750</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>709</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>865</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ILUMEDPI</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2833</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2848</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2862</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2876</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2889</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2901</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2927</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2942</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2957</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2966</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2979</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3001</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3020</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3038</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3045</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3058</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3061</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3067</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3073</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3073</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3073</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3074</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3074</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3075</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3076</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>3076</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>3076</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>3076</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3054</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>3005</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2991</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2949</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2901</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>